--- a/Input/paper1-frame.xlsx
+++ b/Input/paper1-frame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Coordinates" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,10 @@
     <sheet name="Sections" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Nodal Load" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="curve1" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="curve2" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="24 element" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="E0greaterEcr" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="E0equalEcr" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t xml:space="preserve">Node ID</t>
   </si>
@@ -137,7 +141,7 @@
     <t xml:space="preserve">Moment Curvature Curve Sheet Name</t>
   </si>
   <si>
-    <t xml:space="preserve">curve1</t>
+    <t xml:space="preserve">curve2</t>
   </si>
   <si>
     <t xml:space="preserve">Load ID</t>
@@ -159,17 +163,27 @@
   </si>
   <si>
     <t xml:space="preserve">Moment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0 &gt; ecr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0 = ecr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00E+00"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -209,6 +223,11 @@
       <sz val="9"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -267,7 +286,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -280,7 +299,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -290,6 +313,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -350,8 +377,8 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF4000"/>
       <rgbColor rgb="FF595959"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -364,7 +391,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -906,11 +933,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="89078022"/>
-        <c:axId val="48943885"/>
+        <c:axId val="44985036"/>
+        <c:axId val="4025637"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89078022"/>
+        <c:axId val="44985036"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -952,12 +979,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48943885"/>
+        <c:crossAx val="4025637"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48943885"/>
+        <c:axId val="4025637"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -999,7 +1026,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89078022"/>
+        <c:crossAx val="44985036"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1027,20 +1054,257 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>curve2!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000227056069745038</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000421284936640769</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000549488533175174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.000711478335188966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00253697879634439</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00789460124147167</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0249186673420083</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>curve2!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.25936502482851</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.91959631338755</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.98695242333847</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2712927918805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.2553977142965</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.1555946013779</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.0478410973136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="82994730"/>
+        <c:axId val="30008835"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="82994730"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="30008835"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="30008835"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82994730"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>115560</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>140400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>612360</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>398880</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>128880</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1048,8 +1312,43 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4791600" y="711720"/>
-        <a:ext cx="8672400" cy="5897880"/>
+        <a:off x="3764160" y="728280"/>
+        <a:ext cx="8676000" cy="5894640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>795240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>147240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>29520</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3239280" y="147240"/>
+        <a:ext cx="5751720" cy="3235680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1070,10 +1369,10 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="16.57"/>
@@ -1254,6 +1553,702 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>0.000238545613789663</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2.39911311757586</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>0.000715454374045847</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>6.88176156994885</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>0.00121346852134564</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>8.74464902410394</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>0.00164010753407577</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>10.1024270586876</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>0.00204620237207661</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>11.5778080603252</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>0.00261907229467674</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>12.9714604390303</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>0.0033022241616947</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>14.3518585049475</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>0.00361371322960455</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>15.0353227772536</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>0.00396533532432687</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>15.7456248175732</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>0.00430690480558074</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>16.4291270678529</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>0.00466861822730222</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>17.2064095942861</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>0.0050020411776572</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>17.8673660847904</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>0.00539480031567431</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>18.5371316347184</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>0.00578764356229404</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>19.2941933350847</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>0.00626752519452117</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>19.9495195406586</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>0.00667120443277795</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>20.6483975591559</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>0.00710760191745247</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>21.3909649081419</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>0.0076200335788921</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>21.9153881433281</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>0.00814344141297315</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>22.5271212807089</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>0.00862318286419592</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>23.0369539022191</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>0.00908112616924064</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>23.5322096618098</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>0.00939715022547084</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>23.6926514052193</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>0.00996359362789055</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>23.7515639301842</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>0.0106824137820501</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>23.6942741124895</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>0.0115211587854399</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>23.7535304313677</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>0.0123054154324349</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>23.7836192746504</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>0.0129154551272107</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>23.8716855234542</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>0.0142007327018904</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>23.8878575891308</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>0.0158346824887158</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>24.0354139366737</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>0.0170436735608225</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>24.0078416648355</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>0.0178870892204388</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>24.137225371473</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>0.0194939268792614</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>24.1708177881311</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>0.0204391380243655</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>24.2035748693838</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q56" activeCellId="0" sqref="Q56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>0.000131455399061033</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2.40841163049727</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>0.000328638497652582</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4.22240864831847</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>0.000492957746478873</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>6.22415573799943</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>0.000624413145539907</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>7.31878682811152</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>0.000788732394366198</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>8.3195135096292</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>0.00154460093896714</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>10.2576394078758</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>0.00207042253521127</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>12.0397670846507</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>0.00246478873239437</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>13.1964919876401</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>0.00292488262910798</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>13.97771674691</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>0.00384507042253521</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>15.5714481532049</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>0.00489671361502348</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>17.3213540169589</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>0.00581690140845071</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>18.8212397599885</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>0.00653990610328639</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>19.9773772096867</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>0.00723004694835681</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>21.2899828434895</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>0.00772300469483568</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>22.1649945206956</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>0.00884037558685446</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>22.2568428427709</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>0.011075117370892</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>22.3154119359011</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>0.0124882629107981</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>22.3441677745041</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>0.0140985915492958</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>22.4351349166427</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>0.0158732394366197</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>22.5258083321357</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>0.0175164319248826</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>22.6479986167002</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>0.0189953051643192</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>22.676636964645</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>0.0209671361502347</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>22.7356760204082</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>0.0232018779342723</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>22.8568088890486</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>0.025075117370892</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>22.9473060685541</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>6.57276995305167E-005</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1.84545514156367</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>0.000295774647887324</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4.06605795487208</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>0.00055868544600939</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>6.19275635958609</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>0.00055868544600939</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6.78711222693302</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>0.00256338028169014</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>7.4091665169589</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>0.00798591549295775</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>22.258370221328</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>0.0249765258215962</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>23.0100460800517</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1266,10 +2261,10 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1609,7 +2604,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.28"/>
@@ -1676,11 +2671,11 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.28"/>
@@ -1935,13 +2930,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.57"/>
@@ -1970,6 +2965,7 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1988,11 +2984,11 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
@@ -2031,7 +3027,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -2047,30 +3043,31 @@
       <c r="E2" s="0" t="n">
         <v>0.00036062</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <f aca="false">0.0000476881738528482/3</f>
-        <v>1.58960579509494E-005</v>
+      <c r="F2" s="3" t="n">
+        <f aca="false">E2/3</f>
+        <v>0.000120206666666667</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="4"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="5"/>
+      <c r="D25" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2091,10 +3088,10 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.43"/>
   </cols>
@@ -2136,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>-26</v>
+        <v>-30</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
@@ -2163,7 +3160,7 @@
       </c>
       <c r="D3" s="0" t="n">
         <f aca="false">D2</f>
-        <v>-26</v>
+        <v>-30</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
@@ -2194,18 +3191,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.7"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>42</v>
       </c>
@@ -2213,7 +3210,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>-0.127</v>
       </c>
@@ -2221,7 +3218,7 @@
         <v>-1.2655129</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>-0.124</v>
       </c>
@@ -2229,7 +3226,7 @@
         <v>-1.253814134</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>-0.12</v>
       </c>
@@ -2237,7 +3234,7 @@
         <v>-1.230950386</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>-0.116</v>
       </c>
@@ -2245,7 +3242,7 @@
         <v>-1.287264598</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>-0.113</v>
       </c>
@@ -2253,7 +3250,7 @@
         <v>-1.271829344</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>-0.109</v>
       </c>
@@ -2261,7 +3258,7 @@
         <v>-1.320136796</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>-0.106</v>
       </c>
@@ -2269,7 +3266,7 @@
         <v>-1.138605754</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>-0.102</v>
       </c>
@@ -2277,7 +3274,7 @@
         <v>-1.25350276</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>-0.098</v>
       </c>
@@ -2285,7 +3282,7 @@
         <v>-1.186201494</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>-0.095</v>
       </c>
@@ -2293,7 +3290,7 @@
         <v>-1.296294444</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>-0.091</v>
       </c>
@@ -2301,7 +3298,7 @@
         <v>-1.29798476</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>-0.087</v>
       </c>
@@ -2309,7 +3306,7 @@
         <v>-1.169387298</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>-0.084</v>
       </c>
@@ -2317,96 +3314,96 @@
         <v>-1.1276187</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="n">
         <v>-0.08</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>-1.23370827</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="n">
         <v>-0.076</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>-0.987678328</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="n">
         <v>-0.073</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>-1.187713882</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="n">
         <v>-0.069</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>-1.04399254</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="n">
         <v>-0.065</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>-0.870156884</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="n">
         <v>-0.062</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>-0.88585903</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="n">
         <v>-0.058</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>-1.05155448</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="n">
         <v>-0.055</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>-0.853031314</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="n">
         <v>-0.051</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>-0.825719366</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="n">
         <v>-0.047</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>-0.728081376</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="n">
         <v>-0.044</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>-0.844223878</v>
       </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>-0.04</v>
       </c>
@@ -2414,7 +3411,7 @@
         <v>-0.614029528</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>-0.036</v>
       </c>
@@ -2422,7 +3419,7 @@
         <v>-0.61296196</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>-0.033</v>
       </c>
@@ -2430,31 +3427,31 @@
         <v>-0.56203007</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="n">
         <v>-0.029</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>-0.453138134</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="n">
         <v>-0.025</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>-0.305057556</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="n">
         <v>-0.022</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>-0.422178662</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>-0.018</v>
       </c>
@@ -2462,7 +3459,7 @@
         <v>-0.182643092</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>-0.015</v>
       </c>
@@ -2470,7 +3467,7 @@
         <v>-0.212801888</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>-0.011</v>
       </c>
@@ -2478,7 +3475,7 @@
         <v>-0.214225312</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>-0.007</v>
       </c>
@@ -2486,7 +3483,7 @@
         <v>-0.178105928</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>-0.004</v>
       </c>
@@ -2494,7 +3491,7 @@
         <v>-0.097682472</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>0</v>
       </c>
@@ -2502,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>0.002</v>
       </c>
@@ -2510,7 +3507,7 @@
         <v>6.07223782</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>0.005</v>
       </c>
@@ -2518,7 +3515,7 @@
         <v>12.078375388</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>0.007</v>
       </c>
@@ -2526,7 +3523,7 @@
         <v>18.011162138</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>0.01</v>
       </c>
@@ -2534,7 +3531,7 @@
         <v>21.66162195</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>0.012</v>
       </c>
@@ -2542,7 +3539,7 @@
         <v>21.833011096</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>0.014</v>
       </c>
@@ -2550,7 +3547,7 @@
         <v>22.035181786</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>0.017</v>
       </c>
@@ -2558,7 +3555,7 @@
         <v>22.029666018</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>0.019</v>
       </c>
@@ -2566,7 +3563,7 @@
         <v>22.17049603</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>0.022</v>
       </c>
@@ -2574,7 +3571,7 @@
         <v>22.281389656</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>0.024</v>
       </c>
@@ -2582,7 +3579,7 @@
         <v>22.153414942</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>0.027</v>
       </c>
@@ -2590,7 +3587,7 @@
         <v>22.246827142</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>0.029</v>
       </c>
@@ -2598,7 +3595,7 @@
         <v>22.282501706</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>0.031</v>
       </c>
@@ -2606,7 +3603,7 @@
         <v>22.430849176</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>0.034</v>
       </c>
@@ -2614,7 +3611,7 @@
         <v>22.504288958</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>0.036</v>
       </c>
@@ -2622,7 +3619,7 @@
         <v>22.273116004</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>0.039</v>
       </c>
@@ -2630,7 +3627,7 @@
         <v>22.46363241</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>0.041</v>
       </c>
@@ -2638,7 +3635,7 @@
         <v>22.387256816</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>0.043</v>
       </c>
@@ -2646,7 +3643,7 @@
         <v>22.462031058</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>0.046</v>
       </c>
@@ -2654,7 +3651,7 @@
         <v>22.536716336</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>0.048</v>
       </c>
@@ -2662,7 +3659,7 @@
         <v>22.57061162</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <v>0.051</v>
       </c>
@@ -2670,7 +3667,7 @@
         <v>22.555398776</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>0.053</v>
       </c>
@@ -2678,7 +3675,7 @@
         <v>22.504377922</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>0.056</v>
       </c>
@@ -2686,7 +3683,7 @@
         <v>22.423865502</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>0.058</v>
       </c>
@@ -2694,7 +3691,7 @@
         <v>22.498372852</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>0.06</v>
       </c>
@@ -2702,7 +3699,7 @@
         <v>22.351359842</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>0.063</v>
       </c>
@@ -2710,7 +3707,7 @@
         <v>22.4789787</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>0.065</v>
       </c>
@@ -2718,7 +3715,7 @@
         <v>22.5212366</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>0.068</v>
       </c>
@@ -2726,7 +3723,7 @@
         <v>22.499707312</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>0.07</v>
       </c>
@@ -2734,7 +3731,7 @@
         <v>22.423465164</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>0.072</v>
       </c>
@@ -2742,7 +3739,7 @@
         <v>22.336280444</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>0.075</v>
       </c>
@@ -2750,7 +3747,7 @@
         <v>22.32951918</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>0.077</v>
       </c>
@@ -2758,7 +3755,7 @@
         <v>22.343886866</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>0.08</v>
       </c>
@@ -2766,7 +3763,7 @@
         <v>22.475153248</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>0.082</v>
       </c>
@@ -2774,7 +3771,7 @@
         <v>22.413456714</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>0.084</v>
       </c>
@@ -2782,6 +3779,16 @@
         <v>22.351404324</v>
       </c>
     </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2792,4 +3799,185 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P26" activeCellId="0" sqref="P26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="n">
+        <v>0.000227056069745038</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2.25936502482851</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="n">
+        <v>0.000421284936640769</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3.91959631338755</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="n">
+        <v>0.000549488533175174</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5.98695242333847</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="n">
+        <v>0.000711478335188966</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>7.2712927918805</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="n">
+        <v>0.00253697879634439</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>13.2553977142965</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="n">
+        <v>0.00789460124147167</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>22.1555946013779</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="n">
+        <v>0.0249186673420083</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>23.0478410973136</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>